--- a/Homework Did.xlsx
+++ b/Homework Did.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Projetos programação\School-Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\School-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9AFA53-A324-405A-B9ED-74A960E70A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E62271-754C-47A7-AD7C-E3E136945428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Homework Did.xlsx
+++ b/Homework Did.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\School-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E62271-754C-47A7-AD7C-E3E136945428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A58DED-1910-4B0B-ADCF-2DD57A74C218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
